--- a/ffbmessaging/1.0.0/StructureDefinition-kl-messaging-ffb-targetGroup.xlsx
+++ b/ffbmessaging/1.0.0/StructureDefinition-kl-messaging-ffb-targetGroup.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-26T15:31:03+02:00</t>
+    <t>2023-08-27T07:54:57+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
